--- a/biology/Botanique/Palisota_preussiana/Palisota_preussiana.xlsx
+++ b/biology/Botanique/Palisota_preussiana/Palisota_preussiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palisota preussiana est une espèce de plantes à fleurs de la famille de Commelinales et du genre Palisota, présente au Cameroun, en Guinée équatoriale et au Nigeria.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique preussiana rend hommage à Paul Rudolph Preuss, qui l'a collectée au mont Cameroun en 1891[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique preussiana rend hommage à Paul Rudolph Preuss, qui l'a collectée au mont Cameroun en 1891.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pérenne avec une tige dressée assez fine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pérenne avec une tige dressée assez fine.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Cameroun, elle a été collectée à plusieurs reprises au mont Cameroun, également au mont Koupé. En Guinée équatoriale on lui connaît une localisation sur l'île de Bioko[4]. Au nord-est du Nigeria, elle a été récoltée sur un site du plateau de Mambila[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Cameroun, elle a été collectée à plusieurs reprises au mont Cameroun, également au mont Koupé. En Guinée équatoriale on lui connaît une localisation sur l'île de Bioko. Au nord-est du Nigeria, elle a été récoltée sur un site du plateau de Mambila.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse en zone montagnarde ou submontagnarde, entre 1 200 et 2 000 m[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse en zone montagnarde ou submontagnarde, entre 1 200 et 2 000 m.
 </t>
         </is>
       </c>
